--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value83.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value83.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.307395464965292</v>
+        <v>3.993294715881348</v>
       </c>
       <c r="B1">
-        <v>1.372906818217736</v>
+        <v>0.2977640330791473</v>
       </c>
       <c r="C1">
-        <v>1.55863518553473</v>
+        <v>0.2140259593725204</v>
       </c>
       <c r="D1">
-        <v>2.463370935215179</v>
+        <v>0.2033171355724335</v>
       </c>
       <c r="E1">
-        <v>3.822087502269063</v>
+        <v>0.2152483463287354</v>
       </c>
     </row>
   </sheetData>
